--- a/output/below_50/tRNA-Gln-TTG-3-2.xlsx
+++ b/output/below_50/tRNA-Gln-TTG-3-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="80">
   <si>
     <t>chr6</t>
   </si>
@@ -252,93 +252,6 @@
   </si>
   <si>
     <t>42915333798</t>
-  </si>
-  <si>
-    <t>26312183</t>
-  </si>
-  <si>
-    <t>26312206</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>26312186</t>
-  </si>
-  <si>
-    <t>TGTTCTTGCTTTCTGCCTGC</t>
-  </si>
-  <si>
-    <t>12% (33)</t>
-  </si>
-  <si>
-    <t>2% (10)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 45, Doench 2016: 12%, Moreno-Mateos: 2%</t>
-  </si>
-  <si>
-    <t>3.52999E+11</t>
-  </si>
-  <si>
-    <t>26312476</t>
-  </si>
-  <si>
-    <t>26312499</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>26312496</t>
-  </si>
-  <si>
-    <t>ATATTTATTCCATAAGTTAA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>6% (27)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 30, Doench 2016: 6%, Moreno-Mateos: 35%</t>
-  </si>
-  <si>
-    <t>22126513834</t>
-  </si>
-  <si>
-    <t>26312485</t>
-  </si>
-  <si>
-    <t>26312508</t>
-  </si>
-  <si>
-    <t>26312505</t>
-  </si>
-  <si>
-    <t>CCATAAGTTAAAGGCAAGCA</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 66%, Moreno-Mateos: 35%</t>
-  </si>
-  <si>
-    <t>2.22287E+11</t>
   </si>
 </sst>
 </file>
@@ -383,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1215,183 +1128,6 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" t="s">
-        <v>104</v>
-      </c>
-      <c r="O17" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>106</v>
-      </c>
-      <c r="R17" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
